--- a/Documents/Report Material/Costs.xlsx
+++ b/Documents/Report Material/Costs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aj39a\Documents\GitHub\ECE-371-Project\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aj39a\Documents\GitHub\ECE-371-Project\Documents\Report Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5252DFAE-766C-4F3E-8E15-1E360B31AC3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E4C979-7394-4CB2-9574-259D8A72A8BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{C8A3F25E-F8C8-4BBF-A0AF-63DD5873FDD3}"/>
+    <workbookView xWindow="2400" yWindow="3240" windowWidth="21600" windowHeight="11385" xr2:uid="{C8A3F25E-F8C8-4BBF-A0AF-63DD5873FDD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Item</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>1 per unit</t>
+  </si>
+  <si>
+    <t>MMA8451</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,19 +539,37 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3">
-        <v>0.95</v>
+        <v>7.95</v>
       </c>
       <c r="C5">
         <v>1000</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
+        <v>7950</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="C6">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="3">
+        <f>PRODUCT(B6,C6)</f>
         <v>950</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -557,8 +578,8 @@
         <v>7</v>
       </c>
       <c r="D7" s="3">
-        <f>SUM(D2:D5)</f>
-        <v>35772.020000000004</v>
+        <f>SUM(D2:D6)</f>
+        <v>43722.020000000004</v>
       </c>
     </row>
   </sheetData>
